--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1024.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1024.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.072251438800071</v>
+        <v>1.359664797782898</v>
       </c>
       <c r="B1">
-        <v>3.350818683906492</v>
+        <v>1.68866229057312</v>
       </c>
       <c r="C1">
-        <v>3.374810043470291</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.394248462331782</v>
+        <v>1.820631742477417</v>
       </c>
       <c r="E1">
-        <v>1.18500695730405</v>
+        <v>0.7754678130149841</v>
       </c>
     </row>
   </sheetData>
